--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7914.071283196993</v>
+        <v>1574900.185356201</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7914.071283196993</v>
+        <v>1574900.185356201</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14292.88478629198</v>
+        <v>866927.2267651198</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14292.88478629198</v>
+        <v>866927.2267651198</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035713422.334564</v>
+        <v>41944128.46718582</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9625.196708256932</v>
+        <v>976979.1390910288</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18510.29085333066</v>
+        <v>1827058.64131553</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27395.38499840437</v>
+        <v>2677138.143540032</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37223.06685149879</v>
+        <v>3476143.70291416</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47050.7487045932</v>
+        <v>4275149.262288289</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56035.67025454371</v>
+        <v>5125228.764512789</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65218.50928318535</v>
+        <v>5984310.68462518</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74356.1100309833</v>
+        <v>6834390.186849678</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84138.55360323153</v>
+        <v>7624393.328335941</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93169.14570570254</v>
+        <v>8466156.373852935</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102154.067255653</v>
+        <v>9316235.876077438</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>111138.9888056035</v>
+        <v>10166315.37830194</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>120123.910355554</v>
+        <v>11016394.88052645</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>129176.7512868371</v>
+        <v>11854321.50684347</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>138937.3104499027</v>
+        <v>12635061.23672159</v>
       </c>
     </row>
   </sheetData>
